--- a/Week 5/or.xlsx
+++ b/Week 5/or.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaoyocheng/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaoyocheng/Dropbox/Github/BBK_IQSR/Week 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087B78F3-C7E9-AC44-A02B-21074274DB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7441D-32DE-8A41-B56A-1AB5929D4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31440" yWindow="2420" windowWidth="25440" windowHeight="14260" xr2:uid="{664A9C11-7D14-5D43-B0F1-C4E0CC84CDC5}"/>
   </bookViews>
@@ -63,15 +63,6 @@
     <t>Religion and attitudes against abortion are negatively correlated</t>
   </si>
   <si>
-    <t>Increasing importance of religion does NOT affect the odds (of oppsition)</t>
-  </si>
-  <si>
-    <t>Increasing importance of religion also increases the odds (of oppsition)</t>
-  </si>
-  <si>
-    <t>Increasing importance of religion reduces the odds (of oppsition)</t>
-  </si>
-  <si>
     <t>More religion, more resistance against abortion</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>Put it simply</t>
+  </si>
+  <si>
+    <t>Increasing importance of religion does NOT affect the odds/chance (of oppsition)</t>
+  </si>
+  <si>
+    <t>Increasing importance of religion also increases the odds/chance (of oppsition)</t>
+  </si>
+  <si>
+    <t>Increasing importance of religion reduces the odds/chance (of oppsition)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,19 +462,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -485,14 +485,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,16 +500,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Week 5/or.xlsx
+++ b/Week 5/or.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaoyocheng/Dropbox/Github/BBK_IQSR/Week 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7441D-32DE-8A41-B56A-1AB5929D4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F8D75-2EAB-674F-9BF6-649F0A8D18F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31440" yWindow="2420" windowWidth="25440" windowHeight="14260" xr2:uid="{664A9C11-7D14-5D43-B0F1-C4E0CC84CDC5}"/>
   </bookViews>
@@ -63,12 +63,6 @@
     <t>Religion and attitudes against abortion are negatively correlated</t>
   </si>
   <si>
-    <t>More religion, more resistance against abortion</t>
-  </si>
-  <si>
-    <t>More religion, less resistance against abortion</t>
-  </si>
-  <si>
     <t>When you see</t>
   </si>
   <si>
@@ -84,13 +78,19 @@
     <t>Put it simply</t>
   </si>
   <si>
-    <t>Increasing importance of religion does NOT affect the odds/chance (of oppsition)</t>
-  </si>
-  <si>
-    <t>Increasing importance of religion also increases the odds/chance (of oppsition)</t>
-  </si>
-  <si>
-    <t>Increasing importance of religion reduces the odds/chance (of oppsition)</t>
+    <t>More importance of religion does NOT affect the odds/chance (of oppsition)</t>
+  </si>
+  <si>
+    <t>More importance of religion also increases the odds/chance (of oppsition)</t>
+  </si>
+  <si>
+    <t>More importance of religion reduces the odds/chance (of oppsition)</t>
+  </si>
+  <si>
+    <t>Religious people are likely to be against abortion</t>
+  </si>
+  <si>
+    <t>Religious people are less likely to be against abortion</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,19 +462,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -500,13 +500,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Week 5/or.xlsx
+++ b/Week 5/or.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaoyocheng/Dropbox/Github/BBK_IQSR/Week 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F8D75-2EAB-674F-9BF6-649F0A8D18F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21575F37-BE92-3D4B-8A2A-441AA897D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31440" yWindow="2420" windowWidth="25440" windowHeight="14260" xr2:uid="{664A9C11-7D14-5D43-B0F1-C4E0CC84CDC5}"/>
   </bookViews>
@@ -78,19 +78,19 @@
     <t>Put it simply</t>
   </si>
   <si>
-    <t>More importance of religion does NOT affect the odds/chance (of oppsition)</t>
-  </si>
-  <si>
-    <t>More importance of religion also increases the odds/chance (of oppsition)</t>
-  </si>
-  <si>
-    <t>More importance of religion reduces the odds/chance (of oppsition)</t>
-  </si>
-  <si>
     <t>Religious people are likely to be against abortion</t>
   </si>
   <si>
     <t>Religious people are less likely to be against abortion</t>
+  </si>
+  <si>
+    <t>More importance of religion also increases the odds/chance (of resistance against abortion)</t>
+  </si>
+  <si>
+    <t>More importance of religion does NOT affect the odds/chance (of resistance against abortion)</t>
+  </si>
+  <si>
+    <t>More importance of religion reduces the odds/chance (of resistance against abortion)</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,14 +485,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,13 +500,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Week 5/or.xlsx
+++ b/Week 5/or.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaoyocheng/Dropbox/Github/BBK_IQSR/Week 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21575F37-BE92-3D4B-8A2A-441AA897D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78DFBCC-3F6D-6240-9F51-81950F6C2671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="2420" windowWidth="25440" windowHeight="14260" xr2:uid="{664A9C11-7D14-5D43-B0F1-C4E0CC84CDC5}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{664A9C11-7D14-5D43-B0F1-C4E0CC84CDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>OR=1</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Religion and attitudes against abortion are negatively correlated</t>
   </si>
   <si>
-    <t>When you see</t>
-  </si>
-  <si>
     <t>It means</t>
   </si>
   <si>
@@ -78,19 +75,19 @@
     <t>Put it simply</t>
   </si>
   <si>
-    <t>Religious people are likely to be against abortion</t>
-  </si>
-  <si>
     <t>Religious people are less likely to be against abortion</t>
   </si>
   <si>
-    <t>More importance of religion also increases the odds/chance (of resistance against abortion)</t>
-  </si>
-  <si>
-    <t>More importance of religion does NOT affect the odds/chance (of resistance against abortion)</t>
-  </si>
-  <si>
-    <t>More importance of religion reduces the odds/chance (of resistance against abortion)</t>
+    <t>More importance of religion does NOT affect the odds of resisting abortion</t>
+  </si>
+  <si>
+    <t>More importance of religion also increases the odds of resisting abortion</t>
+  </si>
+  <si>
+    <t>More importance of religion reduces the odds of resisting abortion</t>
+  </si>
+  <si>
+    <t>Religious people are more likely to be against abortion</t>
   </si>
 </sst>
 </file>
@@ -450,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974AFA0A-1A66-5445-8181-16708F79CD86}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,23 +458,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,14 +479,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,13 +494,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -517,13 +511,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
